--- a/Q01A-FindAnagrams/Letter2Prime.xlsx
+++ b/Q01A-FindAnagrams/Letter2Prime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjofre/Personal/Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\jpjsm@github\InterviewQuestions\Q01A-FindAnagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0F9228-E63C-F74C-ABA9-2957E1CC3050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340177FB-6F10-4E71-A6A9-265E3E46F657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{11B44D9C-1B83-C84D-8F48-636D0F8632D9}"/>
+    <workbookView xWindow="5970" yWindow="3165" windowWidth="26775" windowHeight="15720" activeTab="5" xr2:uid="{11B44D9C-1B83-C84D-8F48-636D0F8632D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
     <sheet name="Letter2Prime" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -663,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -672,9 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -919,7 +922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0397159-F5EC-AF4A-BBE7-46B48C1F7DF0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0397159-F5EC-AF4A-BBE7-46B48C1F7DF0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1062,9 +1065,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,7 +1105,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1208,7 +1211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1350,7 +1353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1364,9 +1367,9 @@
       <selection sqref="A1:P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>8.4209999999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>8.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>7.5620000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>9.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>1.3559999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>6.0729999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>1.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>2.894E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>3.8019999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>2.4459999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>6.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>6.6949999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>1.9060000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>4.7989999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>5.212E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>5.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>5.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>1.043E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>1.503E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>8.6700000000000006E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>4.62E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>6.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>1.643E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>6.8799999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>2.0400000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -5633,9 +5636,9 @@
       <selection activeCell="B85" sqref="A1:B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11525000000000001</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>8.4209999999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.215E-2</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>8.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.0189999999999997E-2</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.12181</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>7.5620000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.9199999999999999E-3</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7680000000000001E-2</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>9.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.0299999999999998E-3</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>1.3559999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.2469999999999998E-2</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>6.0729999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.9300000000000004E-3</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>1.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1E-4</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>2.894E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.9669999999999999E-2</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>3.8019999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.1570000000000001E-2</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>2.4459999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.7119999999999999E-2</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>6.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.6830000000000004E-2</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>6.6949999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.5100000000000001E-2</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>1.9060000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.77E-3</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8709999999999993E-2</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>4.7989999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7.9769999999999994E-2</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>5.212E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.632E-2</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>5.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.9270000000000001E-2</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.1379999999999999E-2</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>5.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.7000000000000001E-4</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.15E-3</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.008E-2</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>1.043E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.6699999999999997E-3</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>1.503E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.0200000000000002E-3</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>8.6700000000000006E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>4.62E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>6.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7.2500000000000004E-3</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>1.643E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3.1099999999999999E-3</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8.2699999999999996E-3</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>6.8799999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -9285,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.6800000000000001E-3</v>
       </c>
@@ -9485,7 +9488,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.2E-4</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>2.0400000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -9933,13 +9936,13 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
@@ -9947,219 +9950,219 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0.12027</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2.215E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>4.0189999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.12614</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>6.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1.7680000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>7.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>6.9720000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>4.9300000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>4.9669999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3.1570000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>7.0230000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>8.77E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>6.8709999999999993E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>7.9769999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4.632E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>3.107E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>1.1379999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>1.008E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4.6699999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -10176,9 +10179,9 @@
       <selection activeCell="F2" sqref="F2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -10198,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.12181</v>
       </c>
@@ -10208,10 +10211,10 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>0.12614</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>124</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -10221,7 +10224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.11525000000000001</v>
       </c>
@@ -10231,10 +10234,10 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>0.12027</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -10244,7 +10247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.6830000000000004E-2</v>
       </c>
@@ -10254,10 +10257,10 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -10267,7 +10270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.9769999999999994E-2</v>
       </c>
@@ -10277,10 +10280,10 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>7.9769999999999994E-2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>124</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -10290,7 +10293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.8709999999999993E-2</v>
       </c>
@@ -10300,10 +10303,10 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>7.0230000000000001E-2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>124</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -10313,7 +10316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.7119999999999999E-2</v>
       </c>
@@ -10323,10 +10326,10 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>6.9720000000000004E-2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -10336,7 +10339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.2469999999999998E-2</v>
       </c>
@@ -10346,10 +10349,10 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>6.8709999999999993E-2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -10359,7 +10362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.0099999999999999E-2</v>
       </c>
@@ -10369,10 +10372,10 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -10382,7 +10385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.9669999999999999E-2</v>
       </c>
@@ -10392,10 +10395,10 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>4.9669999999999999E-2</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -10405,7 +10408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.632E-2</v>
       </c>
@@ -10415,10 +10418,10 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>4.632E-2</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -10428,7 +10431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.0189999999999997E-2</v>
       </c>
@@ -10438,10 +10441,10 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>4.0189999999999997E-2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>124</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -10451,7 +10454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.1570000000000001E-2</v>
       </c>
@@ -10461,10 +10464,10 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>3.1570000000000001E-2</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>124</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -10474,7 +10477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.9270000000000001E-2</v>
       </c>
@@ -10484,10 +10487,10 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>3.107E-2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -10497,7 +10500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5100000000000001E-2</v>
       </c>
@@ -10507,10 +10510,10 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>124</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -10520,7 +10523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.215E-2</v>
       </c>
@@ -10530,10 +10533,10 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>2.215E-2</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>124</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -10543,7 +10546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.7680000000000001E-2</v>
       </c>
@@ -10553,10 +10556,10 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>1.7680000000000001E-2</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -10566,7 +10569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.1379999999999999E-2</v>
       </c>
@@ -10576,10 +10579,10 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>1.1379999999999999E-2</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>124</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -10589,7 +10592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.008E-2</v>
       </c>
@@ -10599,10 +10602,10 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>1.008E-2</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -10612,7 +10615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.77E-3</v>
       </c>
@@ -10622,10 +10625,10 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>8.77E-3</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -10635,7 +10638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.2699999999999996E-3</v>
       </c>
@@ -10645,10 +10648,10 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>7.0299999999999998E-3</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -10658,7 +10661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7.2500000000000004E-3</v>
       </c>
@@ -10668,10 +10671,10 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -10681,7 +10684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7.0299999999999998E-3</v>
       </c>
@@ -10691,10 +10694,10 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>4.9300000000000004E-3</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>124</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -10704,7 +10707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.9199999999999999E-3</v>
       </c>
@@ -10714,10 +10717,10 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>4.6699999999999997E-3</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>124</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -10727,7 +10730,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.0200000000000002E-3</v>
       </c>
@@ -10737,10 +10740,10 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>2.15E-3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s">
         <v>124</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -10750,7 +10753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.9300000000000004E-3</v>
       </c>
@@ -10760,10 +10763,10 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s">
         <v>124</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -10773,7 +10776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.6699999999999997E-3</v>
       </c>
@@ -10783,10 +10786,10 @@
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <v>1.1E-4</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>124</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -10796,7 +10799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.1099999999999999E-3</v>
       </c>
@@ -10818,7 +10821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.15E-3</v>
       </c>
@@ -10829,7 +10832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.6800000000000001E-3</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.7000000000000001E-4</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.2E-4</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.1E-4</v>
       </c>
@@ -10889,9 +10892,9 @@
       <selection activeCell="B3" sqref="B3:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -10968,7 +10971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10976,7 +10979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10992,7 +10995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11000,7 +11003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11048,7 +11051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11056,7 +11059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11072,7 +11075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11080,7 +11083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11088,7 +11091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11144,7 +11147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11152,7 +11155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11168,17 +11171,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>107</v>
       </c>
@@ -11196,906 +11199,906 @@
       <selection activeCell="E2" sqref="E2:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="7"/>
-    <col min="5" max="5" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.875" style="6"/>
+    <col min="5" max="5" width="29.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="6" t="str">
         <f>"('"&amp; A2 &amp; "', '" &amp; B2 &amp; "', " &amp; TEXT(C2,"#") &amp; "),"</f>
         <v>('EN', 'e', 2),</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E60" si="0">"('"&amp; A3 &amp; "', '" &amp; B3 &amp; "', " &amp; TEXT(C3,"#") &amp; "),"</f>
         <v>('EN', 't', 3),</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'a', 5),</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'o', 7),</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'i', 11),</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'n', 13),</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 's', 17),</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'h', 19),</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'r', 23),</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'd', 29),</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'l', 31),</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'c', 37),</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>41</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'u', 41),</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'm', 43),</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>47</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'w', 47),</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>53</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'f', 53),</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>59</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'g', 59),</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>61</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'y', 61),</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>67</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'p', 67),</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>71</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'b', 71),</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>73</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'v', 73),</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>79</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'k', 79),</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>83</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'j', 83),</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>89</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'x', 89),</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>97</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'q', 97),</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>101</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('EN', 'z', 101),</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'e', 2),</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'é', 2),</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'a', 3),</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'á', 3),</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>5</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'o', 5),</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>5</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'ó', 5),</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>7</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 's', 7),</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>11</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'n', 11),</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>11</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'ñ', 11),</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>13</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'i', 13),</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>13</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'í', 13),</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>17</v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'r', 17),</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>19</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'd', 19),</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>23</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'l', 23),</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>29</v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 't', 29),</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>31</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'c', 31),</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>37</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'm', 37),</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>41</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'u', 41),</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>41</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'ú', 41),</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>41</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'ü', 41),</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>43</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'p', 43),</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>47</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'b', 47),</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>53</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'g', 53),</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>59</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'v', 59),</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>61</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'y', 61),</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>67</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'q', 67),</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>71</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'h', 71),</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>73</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'f', 73),</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>79</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'j', 79),</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>83</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'z', 83),</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>89</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'x', 89),</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>97</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'w', 97),</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>101</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>('ES', 'k', 101),</v>
       </c>
